--- a/medicine/Enfance/Panique_à_la_clinique/Panique_à_la_clinique.xlsx
+++ b/medicine/Enfance/Panique_à_la_clinique/Panique_à_la_clinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panique_%C3%A0_la_clinique</t>
+          <t>Panique_à_la_clinique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Panique à la clinique (The Hostile Hospital) est le huitième tome de la série Les Désastreuses Aventures des orphelins Baudelaire de Lemony Snicket.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panique_%C3%A0_la_clinique</t>
+          <t>Panique_à_la_clinique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orphelins Baudelaires ont fui le village de V.D.C., ayant acquis malgré eux une réputation de criminels. Ils trouvent refuge dans l'épicerie de la Dernière Chance et réussissent à envoyer un télégramme à M. Poe, télégramme qui reste sans réponse. Lorsque l'épicier découvre qu'ils sont recherchés pour meurtre, les trois orphelins n'ont d'autre choix que de monter dans le camion des Volontaires pour Dérider les Convalescents, qui se révèlent n'avoir aucun rapport avec la mystérieuse organisation découverte par les Beauxdraps.
 Ils arrivent finalement à la clinique Heimlich, qui a la particularité de n'avoir été construite qu'à moitié. Là, ils sont engagés pour travailler dans les archives de la clinique avec un vieil homme, Hal, dont la vue est très basse. Celui-ci leur dit avoir entendu parler d'eux dans un dossier concernant les incendies Snicket. Les orphelins continuent à travailler dans les archives, espérant mettre la main sur le dossier en question, et passent la nuit dans l'aile inachevée de la clinique.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Panique_%C3%A0_la_clinique</t>
+          <t>Panique_à_la_clinique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anagrammes
-Parcourant une liste de noms, un des personnages s'écrie que tous ont l'air d'être des anagrammes. Le fait que la plupart sont en effet des anagrammes de noms et mots relatifs à la série. Ruth Dërcroump est l'anagramme de Rupert Murdoch, à l'époque dirigeant de News International, propriétaire de Harpercollins (la maison d'édition publiant la série aux États-Unis ; Al Brisnow forme Lisa Brown, épouse de l'auteur ; Eriq Bluthetts, Brett Helquist, l'illustrateur. On trouvera aussi Ned H.Rirger, anagramme de Red Herring (en anglais, leurre au sens de poisson et piège - référence au sixième tome) ; Monty Kensicle, auteur du Petit Lutin Rose et anagramme de Lemony Snicket ; Linda Rhaldeen, critique de théâtre et anagramme de Daniel Handler. Enfin Carrie E.Abelabudite forme Béatrice Baudelaire ; il s'agissait d'un indice laissé pour les lecteurs les plus attentifs, présageant l'ultime révélation de la série. Les autres noms de la liste sont des variantes de Violette Baudelaire avec quelques lettres de différence.
+          <t>Anagrammes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcourant une liste de noms, un des personnages s'écrie que tous ont l'air d'être des anagrammes. Le fait que la plupart sont en effet des anagrammes de noms et mots relatifs à la série. Ruth Dërcroump est l'anagramme de Rupert Murdoch, à l'époque dirigeant de News International, propriétaire de Harpercollins (la maison d'édition publiant la série aux États-Unis ; Al Brisnow forme Lisa Brown, épouse de l'auteur ; Eriq Bluthetts, Brett Helquist, l'illustrateur. On trouvera aussi Ned H.Rirger, anagramme de Red Herring (en anglais, leurre au sens de poisson et piège - référence au sixième tome) ; Monty Kensicle, auteur du Petit Lutin Rose et anagramme de Lemony Snicket ; Linda Rhaldeen, critique de théâtre et anagramme de Daniel Handler. Enfin Carrie E.Abelabudite forme Béatrice Baudelaire ; il s'agissait d'un indice laissé pour les lecteurs les plus attentifs, présageant l'ultime révélation de la série. Les autres noms de la liste sont des variantes de Violette Baudelaire avec quelques lettres de différence.
 </t>
         </is>
       </c>
@@ -562,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Panique_%C3%A0_la_clinique</t>
+          <t>Panique_à_la_clinique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +599,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2018, la série télévisée Les Désastreuses Aventures des Orphelins Baudelaire adapte le roman dans le septième et huitième épisodes de la deuxième saison.
 </t>
